--- a/HiepVQ_TrainingAutomationTest/automationPractice/files/createAccount.xlsx
+++ b/HiepVQ_TrainingAutomationTest/automationPractice/files/createAccount.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="317">
   <si>
     <t>Password</t>
   </si>
@@ -967,306 +967,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>testselenium23708</t>
-  </si>
-  <si>
-    <t>testselenium43787</t>
-  </si>
-  <si>
-    <t>testselenium10761</t>
-  </si>
-  <si>
-    <t>testselenium23203</t>
-  </si>
-  <si>
-    <t>testselenium94573</t>
-  </si>
-  <si>
-    <t>testselenium81045</t>
-  </si>
-  <si>
-    <t>testselenium98593</t>
-  </si>
-  <si>
-    <t>testselenium69219</t>
-  </si>
-  <si>
-    <t>testselenium44655</t>
-  </si>
-  <si>
-    <t>testselenium84410</t>
-  </si>
-  <si>
-    <t>testselenium95114</t>
-  </si>
-  <si>
-    <t>testselenium69704</t>
-  </si>
-  <si>
-    <t>testselenium57483</t>
-  </si>
-  <si>
-    <t>testselenium61347</t>
-  </si>
-  <si>
-    <t>testselenium40437</t>
-  </si>
-  <si>
-    <t>testselenium97384</t>
-  </si>
-  <si>
-    <t>testselenium68975</t>
-  </si>
-  <si>
-    <t>testselenium32563</t>
-  </si>
-  <si>
-    <t>testselenium16138</t>
-  </si>
-  <si>
-    <t>testselenium76703</t>
-  </si>
-  <si>
-    <t>testselenium28944</t>
-  </si>
-  <si>
-    <t>testselenium74401</t>
-  </si>
-  <si>
-    <t>testselenium34866</t>
-  </si>
-  <si>
-    <t>testselenium93984</t>
-  </si>
-  <si>
-    <t>testselenium17908</t>
-  </si>
-  <si>
-    <t>testselenium98435</t>
-  </si>
-  <si>
-    <t>testselenium70251</t>
-  </si>
-  <si>
-    <t>testselenium17674</t>
-  </si>
-  <si>
-    <t>testselenium93898</t>
-  </si>
-  <si>
-    <t>testselenium79027</t>
-  </si>
-  <si>
-    <t>testselenium84533</t>
-  </si>
-  <si>
-    <t>testselenium55548</t>
-  </si>
-  <si>
-    <t>testselenium99638</t>
-  </si>
-  <si>
-    <t>testselenium82779</t>
-  </si>
-  <si>
-    <t>testselenium21736</t>
-  </si>
-  <si>
-    <t>testselenium96447</t>
-  </si>
-  <si>
-    <t>testselenium47283</t>
-  </si>
-  <si>
-    <t>testselenium69331</t>
-  </si>
-  <si>
-    <t>testselenium26753</t>
-  </si>
-  <si>
-    <t>testselenium92518</t>
-  </si>
-  <si>
-    <t>testselenium72803</t>
-  </si>
-  <si>
-    <t>testselenium66844</t>
-  </si>
-  <si>
-    <t>testselenium27772</t>
-  </si>
-  <si>
-    <t>testselenium98027</t>
-  </si>
-  <si>
-    <t>testselenium25979</t>
-  </si>
-  <si>
-    <t>testselenium10380</t>
-  </si>
-  <si>
-    <t>testselenium36316</t>
-  </si>
-  <si>
-    <t>testselenium45847</t>
-  </si>
-  <si>
-    <t>testselenium13610</t>
-  </si>
-  <si>
-    <t>testselenium37412</t>
-  </si>
-  <si>
-    <t>testselenium28521</t>
-  </si>
-  <si>
-    <t>testselenium31652</t>
-  </si>
-  <si>
-    <t>testselenium97545</t>
-  </si>
-  <si>
-    <t>testselenium52030</t>
-  </si>
-  <si>
-    <t>testselenium54141</t>
-  </si>
-  <si>
-    <t>testselenium76874</t>
-  </si>
-  <si>
-    <t>testselenium74852</t>
-  </si>
-  <si>
-    <t>testselenium93328</t>
-  </si>
-  <si>
-    <t>testselenium54944</t>
-  </si>
-  <si>
-    <t>testselenium10585</t>
-  </si>
-  <si>
-    <t>testselenium99702</t>
-  </si>
-  <si>
-    <t>testselenium37821</t>
-  </si>
-  <si>
-    <t>testselenium26437</t>
-  </si>
-  <si>
-    <t>testselenium92420</t>
-  </si>
-  <si>
-    <t>testselenium45288</t>
-  </si>
-  <si>
-    <t>testselenium64142</t>
-  </si>
-  <si>
-    <t>testselenium72311</t>
-  </si>
-  <si>
-    <t>testselenium27596</t>
-  </si>
-  <si>
-    <t>testselenium71062</t>
-  </si>
-  <si>
-    <t>testselenium89725</t>
-  </si>
-  <si>
-    <t>testselenium51134</t>
-  </si>
-  <si>
-    <t>testselenium80439</t>
-  </si>
-  <si>
-    <t>testselenium86765</t>
-  </si>
-  <si>
-    <t>testselenium52199</t>
-  </si>
-  <si>
-    <t>testselenium11997</t>
-  </si>
-  <si>
-    <t>testselenium44555</t>
-  </si>
-  <si>
-    <t>testselenium69116</t>
-  </si>
-  <si>
-    <t>testselenium59756</t>
-  </si>
-  <si>
-    <t>testselenium52612</t>
-  </si>
-  <si>
-    <t>testselenium59416</t>
-  </si>
-  <si>
-    <t>testselenium41109</t>
-  </si>
-  <si>
-    <t>testselenium28793</t>
-  </si>
-  <si>
-    <t>testselenium33812</t>
-  </si>
-  <si>
-    <t>testselenium94036</t>
-  </si>
-  <si>
-    <t>testselenium14422</t>
-  </si>
-  <si>
-    <t>testselenium28612</t>
-  </si>
-  <si>
-    <t>testselenium17542</t>
-  </si>
-  <si>
-    <t>testselenium18540</t>
-  </si>
-  <si>
-    <t>testselenium43286</t>
-  </si>
-  <si>
-    <t>testselenium22571</t>
-  </si>
-  <si>
-    <t>testselenium85334</t>
-  </si>
-  <si>
-    <t>testselenium10834</t>
-  </si>
-  <si>
-    <t>testselenium52166</t>
-  </si>
-  <si>
-    <t>testselenium88630</t>
-  </si>
-  <si>
-    <t>testselenium30762</t>
-  </si>
-  <si>
-    <t>testselenium90278</t>
-  </si>
-  <si>
-    <t>testselenium59037</t>
-  </si>
-  <si>
-    <t>testselenium31312</t>
-  </si>
-  <si>
-    <t>testselenium76409</t>
-  </si>
-  <si>
-    <t>testselenium87417</t>
   </si>
   <si>
     <t>Status</t>
@@ -1627,7 +1327,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,15 +1385,16 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>316</v>
+      <c r="B2" s="4" t="str">
+        <f ca="1" xml:space="preserve"> CONCATENATE("testselenium",RANDBETWEEN(10000,99999))</f>
+        <v>testselenium58966</v>
       </c>
       <c r="C2" s="2">
         <v>123456</v>
@@ -1731,8 +1432,9 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>317</v>
+      <c r="B3" s="4" t="str">
+        <f t="shared" ref="B3:B66" ca="1" si="0" xml:space="preserve"> CONCATENATE("testselenium",RANDBETWEEN(10000,99999))</f>
+        <v>testselenium57515</v>
       </c>
       <c r="C3" s="2">
         <v>123456</v>
@@ -1770,8 +1472,9 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>318</v>
+      <c r="B4" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium54023</v>
       </c>
       <c r="C4" s="2">
         <v>123456</v>
@@ -1809,8 +1512,9 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>319</v>
+      <c r="B5" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium14796</v>
       </c>
       <c r="C5" s="2">
         <v>123456</v>
@@ -1848,8 +1552,9 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>320</v>
+      <c r="B6" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium54436</v>
       </c>
       <c r="C6" s="2">
         <v>123456</v>
@@ -1887,8 +1592,9 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>321</v>
+      <c r="B7" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium20892</v>
       </c>
       <c r="C7" s="2">
         <v>123456</v>
@@ -1926,8 +1632,9 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>322</v>
+      <c r="B8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium53959</v>
       </c>
       <c r="C8" s="2">
         <v>123456</v>
@@ -1965,8 +1672,9 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>323</v>
+      <c r="B9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium14897</v>
       </c>
       <c r="C9" s="2">
         <v>123456</v>
@@ -2004,8 +1712,9 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>324</v>
+      <c r="B10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium11439</v>
       </c>
       <c r="C10" s="2">
         <v>123456</v>
@@ -2043,8 +1752,9 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>325</v>
+      <c r="B11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium28132</v>
       </c>
       <c r="C11" s="2">
         <v>123456</v>
@@ -2082,8 +1792,9 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>326</v>
+      <c r="B12" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium66465</v>
       </c>
       <c r="C12" s="2">
         <v>123456</v>
@@ -2121,8 +1832,9 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>327</v>
+      <c r="B13" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium18153</v>
       </c>
       <c r="C13" s="2">
         <v>123456</v>
@@ -2160,8 +1872,9 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>328</v>
+      <c r="B14" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium82863</v>
       </c>
       <c r="C14" s="2">
         <v>123456</v>
@@ -2199,8 +1912,9 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>329</v>
+      <c r="B15" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium94693</v>
       </c>
       <c r="C15" s="2">
         <v>123456</v>
@@ -2238,8 +1952,9 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>330</v>
+      <c r="B16" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium98223</v>
       </c>
       <c r="C16" s="2">
         <v>123456</v>
@@ -2277,8 +1992,9 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>331</v>
+      <c r="B17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium21570</v>
       </c>
       <c r="C17" s="2">
         <v>123456</v>
@@ -2316,8 +2032,9 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>332</v>
+      <c r="B18" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium96465</v>
       </c>
       <c r="C18" s="2">
         <v>123456</v>
@@ -2355,8 +2072,9 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>333</v>
+      <c r="B19" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium38708</v>
       </c>
       <c r="C19" s="2">
         <v>123456</v>
@@ -2394,8 +2112,9 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>334</v>
+      <c r="B20" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium24289</v>
       </c>
       <c r="C20" s="2">
         <v>123456</v>
@@ -2433,8 +2152,9 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>335</v>
+      <c r="B21" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium55344</v>
       </c>
       <c r="C21" s="2">
         <v>123456</v>
@@ -2472,8 +2192,9 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>336</v>
+      <c r="B22" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium86941</v>
       </c>
       <c r="C22" s="2">
         <v>123456</v>
@@ -2511,8 +2232,9 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>337</v>
+      <c r="B23" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium51458</v>
       </c>
       <c r="C23" s="2">
         <v>123456</v>
@@ -2550,8 +2272,9 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>338</v>
+      <c r="B24" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium95010</v>
       </c>
       <c r="C24" s="2">
         <v>123456</v>
@@ -2589,8 +2312,9 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>339</v>
+      <c r="B25" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium75255</v>
       </c>
       <c r="C25" s="2">
         <v>123456</v>
@@ -2628,8 +2352,9 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>340</v>
+      <c r="B26" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium41084</v>
       </c>
       <c r="C26" s="2">
         <v>123456</v>
@@ -2667,8 +2392,9 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>341</v>
+      <c r="B27" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium13840</v>
       </c>
       <c r="C27" s="2">
         <v>123456</v>
@@ -2706,8 +2432,9 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>342</v>
+      <c r="B28" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium82095</v>
       </c>
       <c r="C28" s="2">
         <v>123456</v>
@@ -2745,8 +2472,9 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>343</v>
+      <c r="B29" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium78653</v>
       </c>
       <c r="C29" s="2">
         <v>123456</v>
@@ -2784,8 +2512,9 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>344</v>
+      <c r="B30" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium36824</v>
       </c>
       <c r="C30" s="2">
         <v>123456</v>
@@ -2823,8 +2552,9 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>345</v>
+      <c r="B31" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium77056</v>
       </c>
       <c r="C31" s="2">
         <v>123456</v>
@@ -2862,8 +2592,9 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>346</v>
+      <c r="B32" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium16758</v>
       </c>
       <c r="C32" s="2">
         <v>123456</v>
@@ -2901,8 +2632,9 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>347</v>
+      <c r="B33" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium66083</v>
       </c>
       <c r="C33" s="2">
         <v>123456</v>
@@ -2940,8 +2672,9 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>348</v>
+      <c r="B34" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium10881</v>
       </c>
       <c r="C34" s="2">
         <v>123456</v>
@@ -2979,8 +2712,9 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>349</v>
+      <c r="B35" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium93274</v>
       </c>
       <c r="C35" s="2">
         <v>123456</v>
@@ -3018,8 +2752,9 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>350</v>
+      <c r="B36" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium71654</v>
       </c>
       <c r="C36" s="2">
         <v>123456</v>
@@ -3057,8 +2792,9 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>351</v>
+      <c r="B37" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium91888</v>
       </c>
       <c r="C37" s="2">
         <v>123456</v>
@@ -3096,8 +2832,9 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>352</v>
+      <c r="B38" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium39485</v>
       </c>
       <c r="C38" s="2">
         <v>123456</v>
@@ -3135,8 +2872,9 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>353</v>
+      <c r="B39" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium40974</v>
       </c>
       <c r="C39" s="2">
         <v>123456</v>
@@ -3174,8 +2912,9 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>354</v>
+      <c r="B40" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium14270</v>
       </c>
       <c r="C40" s="2">
         <v>123456</v>
@@ -3213,8 +2952,9 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>355</v>
+      <c r="B41" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium33414</v>
       </c>
       <c r="C41" s="2">
         <v>123456</v>
@@ -3252,8 +2992,9 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>356</v>
+      <c r="B42" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium66064</v>
       </c>
       <c r="C42" s="2">
         <v>123456</v>
@@ -3291,8 +3032,9 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>357</v>
+      <c r="B43" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium66654</v>
       </c>
       <c r="C43" s="2">
         <v>123456</v>
@@ -3330,8 +3072,9 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>358</v>
+      <c r="B44" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium53232</v>
       </c>
       <c r="C44" s="2">
         <v>123456</v>
@@ -3369,8 +3112,9 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>359</v>
+      <c r="B45" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium56933</v>
       </c>
       <c r="C45" s="2">
         <v>123456</v>
@@ -3408,8 +3152,9 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>360</v>
+      <c r="B46" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium49057</v>
       </c>
       <c r="C46" s="2">
         <v>123456</v>
@@ -3447,8 +3192,9 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>361</v>
+      <c r="B47" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium18831</v>
       </c>
       <c r="C47" s="2">
         <v>123456</v>
@@ -3486,8 +3232,9 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>362</v>
+      <c r="B48" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium96449</v>
       </c>
       <c r="C48" s="2">
         <v>123456</v>
@@ -3525,8 +3272,9 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>363</v>
+      <c r="B49" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium15441</v>
       </c>
       <c r="C49" s="2">
         <v>123456</v>
@@ -3564,8 +3312,9 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>364</v>
+      <c r="B50" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium55489</v>
       </c>
       <c r="C50" s="2">
         <v>123456</v>
@@ -3603,8 +3352,9 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>365</v>
+      <c r="B51" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium91169</v>
       </c>
       <c r="C51" s="2">
         <v>123456</v>
@@ -3642,8 +3392,9 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>366</v>
+      <c r="B52" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium51052</v>
       </c>
       <c r="C52" s="2">
         <v>123456</v>
@@ -3681,8 +3432,9 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>367</v>
+      <c r="B53" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium97538</v>
       </c>
       <c r="C53" s="2">
         <v>123456</v>
@@ -3720,8 +3472,9 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>368</v>
+      <c r="B54" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium27267</v>
       </c>
       <c r="C54" s="2">
         <v>123456</v>
@@ -3759,8 +3512,9 @@
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>369</v>
+      <c r="B55" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium46148</v>
       </c>
       <c r="C55" s="2">
         <v>123456</v>
@@ -3798,8 +3552,9 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>370</v>
+      <c r="B56" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium19199</v>
       </c>
       <c r="C56" s="2">
         <v>123456</v>
@@ -3837,8 +3592,9 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>371</v>
+      <c r="B57" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium35979</v>
       </c>
       <c r="C57" s="2">
         <v>123456</v>
@@ -3876,8 +3632,9 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>372</v>
+      <c r="B58" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium75304</v>
       </c>
       <c r="C58" s="2">
         <v>123456</v>
@@ -3915,8 +3672,9 @@
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>373</v>
+      <c r="B59" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium36870</v>
       </c>
       <c r="C59" s="2">
         <v>123456</v>
@@ -3954,8 +3712,9 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>374</v>
+      <c r="B60" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium57290</v>
       </c>
       <c r="C60" s="2">
         <v>123456</v>
@@ -3993,8 +3752,9 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>375</v>
+      <c r="B61" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium50514</v>
       </c>
       <c r="C61" s="2">
         <v>123456</v>
@@ -4032,8 +3792,9 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>376</v>
+      <c r="B62" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium13117</v>
       </c>
       <c r="C62" s="2">
         <v>123456</v>
@@ -4071,8 +3832,9 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>377</v>
+      <c r="B63" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium99876</v>
       </c>
       <c r="C63" s="2">
         <v>123456</v>
@@ -4110,8 +3872,9 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>378</v>
+      <c r="B64" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium98555</v>
       </c>
       <c r="C64" s="2">
         <v>123456</v>
@@ -4149,8 +3912,9 @@
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>379</v>
+      <c r="B65" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium49358</v>
       </c>
       <c r="C65" s="2">
         <v>123456</v>
@@ -4188,8 +3952,9 @@
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>380</v>
+      <c r="B66" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>testselenium60238</v>
       </c>
       <c r="C66" s="2">
         <v>123456</v>
@@ -4227,8 +3992,9 @@
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>381</v>
+      <c r="B67" s="4" t="str">
+        <f t="shared" ref="B67:B101" ca="1" si="1" xml:space="preserve"> CONCATENATE("testselenium",RANDBETWEEN(10000,99999))</f>
+        <v>testselenium31964</v>
       </c>
       <c r="C67" s="2">
         <v>123456</v>
@@ -4266,8 +4032,9 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>382</v>
+      <c r="B68" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium87194</v>
       </c>
       <c r="C68" s="2">
         <v>123456</v>
@@ -4305,8 +4072,9 @@
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>383</v>
+      <c r="B69" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium33561</v>
       </c>
       <c r="C69" s="2">
         <v>123456</v>
@@ -4344,8 +4112,9 @@
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>384</v>
+      <c r="B70" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium86480</v>
       </c>
       <c r="C70" s="2">
         <v>123456</v>
@@ -4383,8 +4152,9 @@
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>385</v>
+      <c r="B71" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium32054</v>
       </c>
       <c r="C71" s="2">
         <v>123456</v>
@@ -4422,8 +4192,9 @@
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>386</v>
+      <c r="B72" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium38309</v>
       </c>
       <c r="C72" s="2">
         <v>123456</v>
@@ -4461,8 +4232,9 @@
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>387</v>
+      <c r="B73" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium97237</v>
       </c>
       <c r="C73" s="2">
         <v>123456</v>
@@ -4500,8 +4272,9 @@
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>388</v>
+      <c r="B74" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium17779</v>
       </c>
       <c r="C74" s="2">
         <v>123456</v>
@@ -4539,8 +4312,9 @@
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>389</v>
+      <c r="B75" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium13113</v>
       </c>
       <c r="C75" s="2">
         <v>123456</v>
@@ -4578,8 +4352,9 @@
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>390</v>
+      <c r="B76" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium98705</v>
       </c>
       <c r="C76" s="2">
         <v>123456</v>
@@ -4617,8 +4392,9 @@
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>391</v>
+      <c r="B77" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium95048</v>
       </c>
       <c r="C77" s="2">
         <v>123456</v>
@@ -4656,8 +4432,9 @@
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>392</v>
+      <c r="B78" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium11337</v>
       </c>
       <c r="C78" s="2">
         <v>123456</v>
@@ -4695,8 +4472,9 @@
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>393</v>
+      <c r="B79" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium97189</v>
       </c>
       <c r="C79" s="2">
         <v>123456</v>
@@ -4734,8 +4512,9 @@
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>394</v>
+      <c r="B80" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium79964</v>
       </c>
       <c r="C80" s="2">
         <v>123456</v>
@@ -4773,8 +4552,9 @@
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>395</v>
+      <c r="B81" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium58378</v>
       </c>
       <c r="C81" s="2">
         <v>123456</v>
@@ -4812,8 +4592,9 @@
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>396</v>
+      <c r="B82" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium63467</v>
       </c>
       <c r="C82" s="2">
         <v>123456</v>
@@ -4851,8 +4632,9 @@
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>397</v>
+      <c r="B83" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium11090</v>
       </c>
       <c r="C83" s="2">
         <v>123456</v>
@@ -4890,8 +4672,9 @@
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>398</v>
+      <c r="B84" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium32184</v>
       </c>
       <c r="C84" s="2">
         <v>123456</v>
@@ -4929,8 +4712,9 @@
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>399</v>
+      <c r="B85" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium26927</v>
       </c>
       <c r="C85" s="2">
         <v>123456</v>
@@ -4968,8 +4752,9 @@
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>400</v>
+      <c r="B86" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium50242</v>
       </c>
       <c r="C86" s="2">
         <v>123456</v>
@@ -5007,8 +4792,9 @@
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>401</v>
+      <c r="B87" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium39903</v>
       </c>
       <c r="C87" s="2">
         <v>123456</v>
@@ -5046,8 +4832,9 @@
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>402</v>
+      <c r="B88" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium30732</v>
       </c>
       <c r="C88" s="2">
         <v>123456</v>
@@ -5085,8 +4872,9 @@
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>403</v>
+      <c r="B89" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium57212</v>
       </c>
       <c r="C89" s="2">
         <v>123456</v>
@@ -5124,8 +4912,9 @@
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>404</v>
+      <c r="B90" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium81224</v>
       </c>
       <c r="C90" s="2">
         <v>123456</v>
@@ -5163,8 +4952,9 @@
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>405</v>
+      <c r="B91" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium33777</v>
       </c>
       <c r="C91" s="2">
         <v>123456</v>
@@ -5202,8 +4992,9 @@
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>406</v>
+      <c r="B92" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium70133</v>
       </c>
       <c r="C92" s="2">
         <v>123456</v>
@@ -5241,8 +5032,9 @@
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>407</v>
+      <c r="B93" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium50843</v>
       </c>
       <c r="C93" s="2">
         <v>123456</v>
@@ -5280,8 +5072,9 @@
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>408</v>
+      <c r="B94" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium94938</v>
       </c>
       <c r="C94" s="2">
         <v>123456</v>
@@ -5319,8 +5112,9 @@
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>409</v>
+      <c r="B95" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium38136</v>
       </c>
       <c r="C95" s="2">
         <v>123456</v>
@@ -5358,8 +5152,9 @@
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>410</v>
+      <c r="B96" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium93137</v>
       </c>
       <c r="C96" s="2">
         <v>123456</v>
@@ -5397,8 +5192,9 @@
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>411</v>
+      <c r="B97" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium43652</v>
       </c>
       <c r="C97" s="2">
         <v>123456</v>
@@ -5436,8 +5232,9 @@
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>412</v>
+      <c r="B98" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium53181</v>
       </c>
       <c r="C98" s="2">
         <v>123456</v>
@@ -5475,8 +5272,9 @@
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>413</v>
+      <c r="B99" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium51297</v>
       </c>
       <c r="C99" s="2">
         <v>123456</v>
@@ -5514,8 +5312,9 @@
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>414</v>
+      <c r="B100" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium66311</v>
       </c>
       <c r="C100" s="2">
         <v>123456</v>
@@ -5553,8 +5352,9 @@
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>415</v>
+      <c r="B101" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>testselenium27053</v>
       </c>
       <c r="C101" s="2">
         <v>123456</v>
